--- a/G.A suger.xlsx
+++ b/G.A suger.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="128">
   <si>
     <t>العدد</t>
   </si>
@@ -2290,6 +2290,84 @@
       </rPr>
       <t xml:space="preserve"> الطيب يوسف </t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">عكسي قيد صالح درويش </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">اذن خروج رقم </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>489</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> سمير </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">اذن خروج رقم </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>351</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> الحاج علي  بورتسودان</t>
+    </r>
+  </si>
+  <si>
+    <t>حاويه بوليصة رقم  9584</t>
+  </si>
+  <si>
+    <t>حاويه بوليصة رقم  7953</t>
+  </si>
+  <si>
+    <t>حاويه بوليصة رقم  9671</t>
+  </si>
+  <si>
+    <t>حاويه بوليصة رقم  8808</t>
+  </si>
+  <si>
+    <t>حاويه بوليصة رقم  3006</t>
+  </si>
+  <si>
+    <t>حاويه بوليصة رقم  9746</t>
+  </si>
+  <si>
+    <t>حاويه بوليصة رقم  9768</t>
   </si>
 </sst>
 </file>
@@ -2679,10 +2757,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F117"/>
+  <dimension ref="A1:F127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A105" workbookViewId="0">
-      <selection activeCell="B118" sqref="B118"/>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="C128" sqref="C128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -4486,10 +4564,10 @@
       </c>
       <c r="C116" s="3">
         <f>C115-D116</f>
-        <v>91718</v>
+        <v>91758</v>
       </c>
       <c r="D116" s="3">
-        <v>2040</v>
+        <v>2000</v>
       </c>
       <c r="F116" s="2">
         <v>43369</v>
@@ -4501,20 +4579,191 @@
       </c>
       <c r="C117" s="3">
         <f>C116-D117</f>
-        <v>90480</v>
+        <v>90520</v>
       </c>
       <c r="D117" s="3">
         <v>1238</v>
       </c>
       <c r="F117" s="2">
         <v>43369</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="B118" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C118" s="3">
+        <f>C117+E118</f>
+        <v>94140</v>
+      </c>
+      <c r="E118" s="5">
+        <v>3620</v>
+      </c>
+      <c r="F118" s="2">
+        <v>43353</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="B119" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C119" s="3">
+        <f>C118-D119</f>
+        <v>93140</v>
+      </c>
+      <c r="D119" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F119" s="2">
+        <v>43353</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="B120" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C120" s="3">
+        <f>C119-D120</f>
+        <v>2420</v>
+      </c>
+      <c r="D120" s="3">
+        <v>90720</v>
+      </c>
+      <c r="F120" s="2">
+        <v>43383</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A121" s="4">
+        <v>5</v>
+      </c>
+      <c r="B121" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="C121" s="3">
+        <f>C120+E121</f>
+        <v>5120</v>
+      </c>
+      <c r="E121" s="5">
+        <v>2700</v>
+      </c>
+      <c r="F121" s="2">
+        <v>43373</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A122" s="4">
+        <v>25</v>
+      </c>
+      <c r="B122" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="C122" s="3">
+        <f>C121+E122</f>
+        <v>18620</v>
+      </c>
+      <c r="E122" s="5">
+        <v>13500</v>
+      </c>
+      <c r="F122" s="2">
+        <v>43373</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A123" s="4">
+        <v>19</v>
+      </c>
+      <c r="B123" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="C123" s="3">
+        <f>C122+E123</f>
+        <v>28880</v>
+      </c>
+      <c r="E123" s="5">
+        <v>10260</v>
+      </c>
+      <c r="F123" s="2">
+        <v>43373</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A124" s="4">
+        <v>25</v>
+      </c>
+      <c r="B124" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="C124" s="3">
+        <f>C123+E124</f>
+        <v>42380</v>
+      </c>
+      <c r="E124" s="5">
+        <v>13500</v>
+      </c>
+      <c r="F124" s="2">
+        <v>43373</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A125" s="4">
+        <v>1</v>
+      </c>
+      <c r="B125" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="C125" s="3">
+        <f>C124+E125</f>
+        <v>42920</v>
+      </c>
+      <c r="E125" s="5">
+        <v>540</v>
+      </c>
+      <c r="F125" s="2">
+        <v>43373</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A126" s="4">
+        <v>25</v>
+      </c>
+      <c r="B126" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="C126" s="3">
+        <f>C125+E126</f>
+        <v>56420</v>
+      </c>
+      <c r="E126" s="5">
+        <v>13500</v>
+      </c>
+      <c r="F126" s="2">
+        <v>43373</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A127" s="4">
+        <v>50</v>
+      </c>
+      <c r="B127" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="C127" s="3">
+        <f>C126+E127</f>
+        <v>83420</v>
+      </c>
+      <c r="E127" s="5">
+        <v>27000</v>
+      </c>
+      <c r="F127" s="2">
+        <v>43373</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="C78" formula="1"/>
+    <ignoredError sqref="C78 C118" formula="1"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/G.A suger.xlsx
+++ b/G.A suger.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="139">
   <si>
     <t>العدد</t>
   </si>
@@ -2368,6 +2368,231 @@
   </si>
   <si>
     <t>حاويه بوليصة رقم  9768</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">اذن خروج رقم </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>352</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> الطيب يوسف </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">اذن خروج رقم </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>353</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> الطيب يوسف </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">اذن خروج رقم </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>354</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> الطيب يوسف </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">اذن خروج رقم </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>355</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> الطيب يوسف </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">اذن خروج رقم </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>356</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> الطيب يوسف </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">اذن خروج رقم </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>357</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> الطيب يوسف </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">اذن خروج رقم </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>358</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> الطيب يوسف </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">اذن خروج رقم </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>359</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> الطيب يوسف </t>
+    </r>
+  </si>
+  <si>
+    <t>حاويه بوليصة رقم  25471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">فرغت المخزن </t>
+  </si>
+  <si>
+    <t>عكسي قيد رقم 358</t>
   </si>
 </sst>
 </file>
@@ -2409,12 +2634,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -2445,7 +2682,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -2462,6 +2699,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -2757,10 +2996,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F127"/>
+  <dimension ref="A1:F145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="C128" sqref="C128"/>
+    <sheetView tabSelected="1" topLeftCell="A129" workbookViewId="0">
+      <selection activeCell="B149" sqref="B149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -4470,7 +4709,7 @@
         <f>C109-D110</f>
         <v>291156</v>
       </c>
-      <c r="D110" s="3">
+      <c r="D110" s="11">
         <v>12000</v>
       </c>
       <c r="F110" s="2">
@@ -4485,7 +4724,7 @@
         <f>C110-D111</f>
         <v>177520</v>
       </c>
-      <c r="D111" s="3">
+      <c r="D111" s="11">
         <v>113636</v>
       </c>
       <c r="F111" s="2">
@@ -4503,6 +4742,7 @@
         <f>C111+E112</f>
         <v>199120</v>
       </c>
+      <c r="D112" s="11"/>
       <c r="E112" s="5">
         <v>21600</v>
       </c>
@@ -4517,10 +4757,11 @@
       <c r="B113" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="C113" s="3">
+      <c r="C113" s="10">
         <f>C112+E113</f>
         <v>220720</v>
       </c>
+      <c r="D113" s="11"/>
       <c r="E113" s="5">
         <v>21600</v>
       </c>
@@ -4536,7 +4777,7 @@
         <f>C113-D114</f>
         <v>120720</v>
       </c>
-      <c r="D114" s="3">
+      <c r="D114" s="11">
         <v>100000</v>
       </c>
       <c r="F114" s="2">
@@ -4551,7 +4792,7 @@
         <f>C114-D115</f>
         <v>93758</v>
       </c>
-      <c r="D115" s="3">
+      <c r="D115" s="11">
         <v>26962</v>
       </c>
       <c r="F115" s="2">
@@ -4566,7 +4807,7 @@
         <f>C115-D116</f>
         <v>91758</v>
       </c>
-      <c r="D116" s="3">
+      <c r="D116" s="11">
         <v>2000</v>
       </c>
       <c r="F116" s="2">
@@ -4581,7 +4822,7 @@
         <f>C116-D117</f>
         <v>90520</v>
       </c>
-      <c r="D117" s="3">
+      <c r="D117" s="11">
         <v>1238</v>
       </c>
       <c r="F117" s="2">
@@ -4596,6 +4837,7 @@
         <f>C117+E118</f>
         <v>94140</v>
       </c>
+      <c r="D118" s="11"/>
       <c r="E118" s="5">
         <v>3620</v>
       </c>
@@ -4611,7 +4853,7 @@
         <f>C118-D119</f>
         <v>93140</v>
       </c>
-      <c r="D119" s="3">
+      <c r="D119" s="11">
         <v>1000</v>
       </c>
       <c r="F119" s="2">
@@ -4626,7 +4868,7 @@
         <f>C119-D120</f>
         <v>2420</v>
       </c>
-      <c r="D120" s="3">
+      <c r="D120" s="11">
         <v>90720</v>
       </c>
       <c r="F120" s="2">
@@ -4641,7 +4883,7 @@
         <v>121</v>
       </c>
       <c r="C121" s="3">
-        <f>C120+E121</f>
+        <f t="shared" ref="C121:C127" si="12">C120+E121</f>
         <v>5120</v>
       </c>
       <c r="E121" s="5">
@@ -4659,7 +4901,7 @@
         <v>122</v>
       </c>
       <c r="C122" s="3">
-        <f>C121+E122</f>
+        <f t="shared" si="12"/>
         <v>18620</v>
       </c>
       <c r="E122" s="5">
@@ -4677,7 +4919,7 @@
         <v>123</v>
       </c>
       <c r="C123" s="3">
-        <f>C122+E123</f>
+        <f t="shared" si="12"/>
         <v>28880</v>
       </c>
       <c r="E123" s="5">
@@ -4695,7 +4937,7 @@
         <v>124</v>
       </c>
       <c r="C124" s="3">
-        <f>C123+E124</f>
+        <f t="shared" si="12"/>
         <v>42380</v>
       </c>
       <c r="E124" s="5">
@@ -4713,7 +4955,7 @@
         <v>125</v>
       </c>
       <c r="C125" s="3">
-        <f>C124+E125</f>
+        <f t="shared" si="12"/>
         <v>42920</v>
       </c>
       <c r="E125" s="5">
@@ -4731,7 +4973,7 @@
         <v>126</v>
       </c>
       <c r="C126" s="3">
-        <f>C125+E126</f>
+        <f t="shared" si="12"/>
         <v>56420</v>
       </c>
       <c r="E126" s="5">
@@ -4749,7 +4991,7 @@
         <v>127</v>
       </c>
       <c r="C127" s="3">
-        <f>C126+E127</f>
+        <f t="shared" si="12"/>
         <v>83420</v>
       </c>
       <c r="E127" s="5">
@@ -4757,13 +4999,287 @@
       </c>
       <c r="F127" s="2">
         <v>43373</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="B128" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C128" s="3">
+        <f t="shared" ref="C128:C135" si="13">C127-D128</f>
+        <v>77020</v>
+      </c>
+      <c r="D128" s="11">
+        <v>6400</v>
+      </c>
+      <c r="F128" s="2">
+        <v>43375</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="B129" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C129" s="3">
+        <f t="shared" si="13"/>
+        <v>71720</v>
+      </c>
+      <c r="D129" s="11">
+        <v>5300</v>
+      </c>
+      <c r="F129" s="2">
+        <v>43377</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="B130" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C130" s="3">
+        <f t="shared" si="13"/>
+        <v>66720</v>
+      </c>
+      <c r="D130" s="11">
+        <v>5000</v>
+      </c>
+      <c r="F130" s="2">
+        <v>43380</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="B131" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C131" s="3">
+        <f t="shared" si="13"/>
+        <v>65320</v>
+      </c>
+      <c r="D131" s="11">
+        <v>1400</v>
+      </c>
+      <c r="F131" s="2">
+        <v>43379</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="B132" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C132" s="3">
+        <f t="shared" si="13"/>
+        <v>60420</v>
+      </c>
+      <c r="D132" s="11">
+        <v>4900</v>
+      </c>
+      <c r="F132" s="2">
+        <v>43379</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="B133" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C133" s="3">
+        <f t="shared" si="13"/>
+        <v>54320</v>
+      </c>
+      <c r="D133" s="11">
+        <v>6100</v>
+      </c>
+      <c r="F133" s="2">
+        <v>43381</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="B134" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C134" s="3">
+        <f t="shared" si="13"/>
+        <v>52520</v>
+      </c>
+      <c r="D134" s="11">
+        <v>1800</v>
+      </c>
+      <c r="F134" s="2">
+        <v>43377</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="B135" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C135" s="3">
+        <f t="shared" si="13"/>
+        <v>45120</v>
+      </c>
+      <c r="D135" s="11">
+        <v>7400</v>
+      </c>
+      <c r="F135" s="2">
+        <v>43382</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A136" s="4">
+        <v>100</v>
+      </c>
+      <c r="B136" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="C136" s="3">
+        <f>C135+E136</f>
+        <v>97120</v>
+      </c>
+      <c r="D136" s="11"/>
+      <c r="E136" s="5">
+        <v>52000</v>
+      </c>
+      <c r="F136" s="2">
+        <v>43383</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="B137" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C137" s="3">
+        <f>C136-D137</f>
+        <v>87120</v>
+      </c>
+      <c r="D137" s="11">
+        <v>10000</v>
+      </c>
+      <c r="F137" s="2">
+        <v>43370</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="B138" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C138" s="3">
+        <f>C137-D138</f>
+        <v>85520</v>
+      </c>
+      <c r="D138" s="11">
+        <v>1600</v>
+      </c>
+      <c r="F138" s="2">
+        <v>43373</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="B139" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C139" s="3">
+        <f>C138-D139</f>
+        <v>85020</v>
+      </c>
+      <c r="D139" s="11">
+        <v>500</v>
+      </c>
+      <c r="F139" s="2">
+        <v>43382</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="B140" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C140" s="3">
+        <f>C139-D140</f>
+        <v>83520</v>
+      </c>
+      <c r="D140" s="11">
+        <v>1500</v>
+      </c>
+      <c r="F140" s="2">
+        <v>43372</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="B141" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C141" s="3">
+        <f>C140-D141</f>
+        <v>80720</v>
+      </c>
+      <c r="D141" s="3">
+        <v>2800</v>
+      </c>
+      <c r="F141" s="2">
+        <v>43383</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="B142" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C142" s="3">
+        <f>C141-D142</f>
+        <v>79320</v>
+      </c>
+      <c r="D142" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F142" s="2">
+        <v>43383</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="B143" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C143" s="3">
+        <f>C142-D143</f>
+        <v>73720</v>
+      </c>
+      <c r="D143" s="3">
+        <v>5600</v>
+      </c>
+      <c r="F143" s="2">
+        <v>43384</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="B144" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C144" s="3">
+        <f>C143-D144</f>
+        <v>70220</v>
+      </c>
+      <c r="D144" s="3">
+        <v>3500</v>
+      </c>
+      <c r="F144" s="2">
+        <v>43384</v>
+      </c>
+    </row>
+    <row r="145" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B145" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C145" s="10">
+        <f>C144+E145</f>
+        <v>72020</v>
+      </c>
+      <c r="E145" s="5">
+        <v>1800</v>
+      </c>
+      <c r="F145" s="2">
+        <v>43384</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="C78 C118" formula="1"/>
+    <ignoredError sqref="C78 C118 C136" formula="1"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/G.A suger.xlsx
+++ b/G.A suger.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="148">
   <si>
     <t>العدد</t>
   </si>
@@ -2589,10 +2589,255 @@
     <t>حاويه بوليصة رقم  25471</t>
   </si>
   <si>
-    <t xml:space="preserve">فرغت المخزن </t>
-  </si>
-  <si>
     <t>عكسي قيد رقم 358</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">اذن خروج رقم </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>364</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> عصمت الامين </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">اذن خروج رقم </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>361</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> عصمت الامين </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">اذن خروج رقم </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>360</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> عصمت الامين </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">فرغت المخزن اذن رقم </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>363</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">فرغت المخزن اذن رقم </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>362</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">اذن خروج رقم </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>365</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> عصمت الامين </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">اذن خروج رقم </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>366</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> الطيب يوسف </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">اذن خروج رقم </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>368</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> الطيب يوسف </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">اذن خروج رقم </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>369</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> عصمت الامين </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">اذن خروج رقم </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>370</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> عصمت الامين </t>
+    </r>
   </si>
 </sst>
 </file>
@@ -2996,10 +3241,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F145"/>
+  <dimension ref="A1:F151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A129" workbookViewId="0">
-      <selection activeCell="B149" sqref="B149"/>
+    <sheetView tabSelected="1" topLeftCell="A126" workbookViewId="0">
+      <selection activeCell="C152" sqref="C152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -5145,7 +5390,7 @@
         <v>115</v>
       </c>
       <c r="C137" s="3">
-        <f>C136-D137</f>
+        <f t="shared" ref="C137:C144" si="14">C136-D137</f>
         <v>87120</v>
       </c>
       <c r="D137" s="11">
@@ -5160,7 +5405,7 @@
         <v>128</v>
       </c>
       <c r="C138" s="3">
-        <f>C137-D138</f>
+        <f t="shared" si="14"/>
         <v>85520</v>
       </c>
       <c r="D138" s="11">
@@ -5175,7 +5420,7 @@
         <v>115</v>
       </c>
       <c r="C139" s="3">
-        <f>C138-D139</f>
+        <f t="shared" si="14"/>
         <v>85020</v>
       </c>
       <c r="D139" s="11">
@@ -5190,7 +5435,7 @@
         <v>128</v>
       </c>
       <c r="C140" s="3">
-        <f>C139-D140</f>
+        <f t="shared" si="14"/>
         <v>83520</v>
       </c>
       <c r="D140" s="11">
@@ -5202,10 +5447,10 @@
     </row>
     <row r="141" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="B141" s="1" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="C141" s="3">
-        <f>C140-D141</f>
+        <f t="shared" si="14"/>
         <v>80720</v>
       </c>
       <c r="D141" s="3">
@@ -5217,10 +5462,10 @@
     </row>
     <row r="142" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="B142" s="1" t="s">
-        <v>115</v>
+        <v>140</v>
       </c>
       <c r="C142" s="3">
-        <f>C141-D142</f>
+        <f t="shared" si="14"/>
         <v>79320</v>
       </c>
       <c r="D142" s="3">
@@ -5232,10 +5477,10 @@
     </row>
     <row r="143" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="B143" s="1" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C143" s="3">
-        <f>C142-D143</f>
+        <f t="shared" si="14"/>
         <v>73720</v>
       </c>
       <c r="D143" s="3">
@@ -5247,10 +5492,10 @@
     </row>
     <row r="144" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="B144" s="1" t="s">
-        <v>115</v>
+        <v>139</v>
       </c>
       <c r="C144" s="3">
-        <f>C143-D144</f>
+        <f t="shared" si="14"/>
         <v>70220</v>
       </c>
       <c r="D144" s="3">
@@ -5262,7 +5507,7 @@
     </row>
     <row r="145" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B145" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C145" s="10">
         <f>C144+E145</f>
@@ -5273,13 +5518,103 @@
       </c>
       <c r="F145" s="2">
         <v>43384</v>
+      </c>
+    </row>
+    <row r="146" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B146" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C146" s="3">
+        <f>C145-D146</f>
+        <v>70620</v>
+      </c>
+      <c r="D146" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F146" s="2">
+        <v>43386</v>
+      </c>
+    </row>
+    <row r="147" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B147" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C147" s="3">
+        <f>C146-D147</f>
+        <v>61620</v>
+      </c>
+      <c r="D147" s="3">
+        <v>9000</v>
+      </c>
+      <c r="F147" s="2">
+        <v>43386</v>
+      </c>
+    </row>
+    <row r="148" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B148" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C148" s="3">
+        <f>C147-D148</f>
+        <v>55820</v>
+      </c>
+      <c r="D148" s="3">
+        <v>5800</v>
+      </c>
+      <c r="F148" s="2">
+        <v>43387</v>
+      </c>
+    </row>
+    <row r="149" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B149" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C149" s="3">
+        <f>C148-D149</f>
+        <v>53620</v>
+      </c>
+      <c r="D149" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F149" s="2">
+        <v>43388</v>
+      </c>
+    </row>
+    <row r="150" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B150" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C150" s="3">
+        <f>C149-D150</f>
+        <v>48520</v>
+      </c>
+      <c r="D150" s="3">
+        <v>5100</v>
+      </c>
+      <c r="F150" s="2">
+        <v>43388</v>
+      </c>
+    </row>
+    <row r="151" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B151" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C151" s="3">
+        <f>C150-D151</f>
+        <v>44320</v>
+      </c>
+      <c r="D151" s="3">
+        <v>4200</v>
+      </c>
+      <c r="F151" s="2">
+        <v>43389</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="C78 C118 C136" formula="1"/>
+    <ignoredError sqref="C78 C118 C136 C145" formula="1"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/G.A suger.xlsx
+++ b/G.A suger.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="156">
   <si>
     <t>العدد</t>
   </si>
@@ -2826,6 +2826,222 @@
         <scheme val="minor"/>
       </rPr>
       <t>370</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> عصمت الامين </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">اذن خروج رقم </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>371</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> عصمت الامين </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">اذن خروج رقم </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>373</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> الطيب يوسف </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">اذن خروج رقم </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>374</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> عصمت الامين </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">اذن خروج رقم </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>372</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> الطيب يوسف</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">اذن خروج رقم </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>375</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> الطيب يوسف </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">اذن خروج رقم </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>376</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> الطيب يوسف </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">اذن خروج رقم </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>377</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> عصمت الامين </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">اذن خروج رقم </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>378</t>
     </r>
     <r>
       <rPr>
@@ -3241,10 +3457,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F151"/>
+  <dimension ref="A1:F160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A126" workbookViewId="0">
-      <selection activeCell="C152" sqref="C152"/>
+    <sheetView tabSelected="1" topLeftCell="A150" workbookViewId="0">
+      <selection activeCell="C162" sqref="C162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -5525,7 +5741,7 @@
         <v>138</v>
       </c>
       <c r="C146" s="3">
-        <f>C145-D146</f>
+        <f t="shared" ref="C146:C151" si="15">C145-D146</f>
         <v>70620</v>
       </c>
       <c r="D146" s="3">
@@ -5540,7 +5756,7 @@
         <v>143</v>
       </c>
       <c r="C147" s="3">
-        <f>C146-D147</f>
+        <f t="shared" si="15"/>
         <v>61620</v>
       </c>
       <c r="D147" s="3">
@@ -5555,7 +5771,7 @@
         <v>144</v>
       </c>
       <c r="C148" s="3">
-        <f>C147-D148</f>
+        <f t="shared" si="15"/>
         <v>55820</v>
       </c>
       <c r="D148" s="3">
@@ -5570,7 +5786,7 @@
         <v>145</v>
       </c>
       <c r="C149" s="3">
-        <f>C148-D149</f>
+        <f t="shared" si="15"/>
         <v>53620</v>
       </c>
       <c r="D149" s="3">
@@ -5585,7 +5801,7 @@
         <v>146</v>
       </c>
       <c r="C150" s="3">
-        <f>C149-D150</f>
+        <f t="shared" si="15"/>
         <v>48520</v>
       </c>
       <c r="D150" s="3">
@@ -5600,7 +5816,7 @@
         <v>147</v>
       </c>
       <c r="C151" s="3">
-        <f>C150-D151</f>
+        <f t="shared" si="15"/>
         <v>44320</v>
       </c>
       <c r="D151" s="3">
@@ -5608,6 +5824,141 @@
       </c>
       <c r="F151" s="2">
         <v>43389</v>
+      </c>
+    </row>
+    <row r="152" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B152" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C152" s="3">
+        <f t="shared" ref="C152:C159" si="16">C151-D152</f>
+        <v>42320</v>
+      </c>
+      <c r="D152" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F152" s="2">
+        <v>43389</v>
+      </c>
+    </row>
+    <row r="153" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B153" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C153" s="3">
+        <f t="shared" si="16"/>
+        <v>40920</v>
+      </c>
+      <c r="D153" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F153" s="2">
+        <v>43389</v>
+      </c>
+    </row>
+    <row r="154" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B154" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C154" s="3">
+        <f t="shared" si="16"/>
+        <v>40120</v>
+      </c>
+      <c r="D154" s="3">
+        <v>800</v>
+      </c>
+      <c r="F154" s="2">
+        <v>43389</v>
+      </c>
+    </row>
+    <row r="155" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B155" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C155" s="3">
+        <f t="shared" si="16"/>
+        <v>38520</v>
+      </c>
+      <c r="D155" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F155" s="2">
+        <v>43390</v>
+      </c>
+    </row>
+    <row r="156" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B156" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C156" s="3">
+        <f t="shared" si="16"/>
+        <v>33420</v>
+      </c>
+      <c r="D156" s="3">
+        <v>5100</v>
+      </c>
+      <c r="F156" s="2">
+        <v>43390</v>
+      </c>
+    </row>
+    <row r="157" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B157" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C157" s="3">
+        <f t="shared" si="16"/>
+        <v>32720</v>
+      </c>
+      <c r="D157" s="3">
+        <v>700</v>
+      </c>
+      <c r="F157" s="2">
+        <v>43390</v>
+      </c>
+    </row>
+    <row r="158" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B158" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C158" s="3">
+        <f t="shared" si="16"/>
+        <v>30820</v>
+      </c>
+      <c r="D158" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F158" s="2">
+        <v>43391</v>
+      </c>
+    </row>
+    <row r="159" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B159" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C159" s="3">
+        <f t="shared" si="16"/>
+        <v>28520</v>
+      </c>
+      <c r="D159" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F159" s="2">
+        <v>43391</v>
+      </c>
+    </row>
+    <row r="160" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B160" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C160" s="3">
+        <f>C159-D160</f>
+        <v>24320</v>
+      </c>
+      <c r="D160" s="3">
+        <v>4200</v>
+      </c>
+      <c r="F160" s="2">
+        <v>43394</v>
       </c>
     </row>
   </sheetData>

--- a/G.A suger.xlsx
+++ b/G.A suger.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="166">
   <si>
     <t>العدد</t>
   </si>
@@ -3054,6 +3054,252 @@
       </rPr>
       <t xml:space="preserve"> عصمت الامين </t>
     </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">اذن خروج رقم </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>379</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> عصمت الامين </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">اذن خروج رقم </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>380</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> عصمت الامين </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">اذن خروج رقم </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>381</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> عصمت الامين </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">اذن خروج رقم </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>382</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> الطيب يوسف </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">اذن خروج رقم </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>383</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> الطيب يوسف </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">اذن خروج رقم </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>384</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> عصمت الامين </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">اذن خروج رقم </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>385</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> الطيب يوسف </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">اذن خروج رقم </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>386</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> عصمت الامين </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">اذن خروج رقم </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>387</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> عصمت الامين </t>
+    </r>
+  </si>
+  <si>
+    <t>عكس قيد متبقي الحاج علي حتى تاريخ 1/11</t>
   </si>
 </sst>
 </file>
@@ -3095,7 +3341,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3111,6 +3357,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3143,7 +3395,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -3162,6 +3414,10 @@
     </xf>
     <xf numFmtId="43" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="2" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -3457,10 +3713,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F160"/>
+  <dimension ref="A1:F169"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A150" workbookViewId="0">
-      <selection activeCell="C162" sqref="C162"/>
+    <sheetView tabSelected="1" topLeftCell="A155" workbookViewId="0">
+      <selection activeCell="D181" sqref="D181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -5079,7 +5335,7 @@
       <c r="B105" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C105" s="3">
+      <c r="C105" s="12">
         <f>C104-D105</f>
         <v>249156</v>
       </c>
@@ -5948,10 +6204,10 @@
     </row>
     <row r="160" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B160" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C160" s="3">
-        <f>C159-D160</f>
+        <f t="shared" ref="C160:C165" si="17">C159-D160</f>
         <v>24320</v>
       </c>
       <c r="D160" s="3">
@@ -5959,6 +6215,141 @@
       </c>
       <c r="F160" s="2">
         <v>43394</v>
+      </c>
+    </row>
+    <row r="161" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B161" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C161" s="3">
+        <f t="shared" si="17"/>
+        <v>20820</v>
+      </c>
+      <c r="D161" s="3">
+        <v>3500</v>
+      </c>
+      <c r="F161" s="2">
+        <v>43394</v>
+      </c>
+    </row>
+    <row r="162" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B162" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C162" s="3">
+        <f t="shared" si="17"/>
+        <v>20020</v>
+      </c>
+      <c r="D162" s="3">
+        <v>800</v>
+      </c>
+      <c r="F162" s="2">
+        <v>43394</v>
+      </c>
+    </row>
+    <row r="163" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B163" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C163" s="11">
+        <f t="shared" si="17"/>
+        <v>17520</v>
+      </c>
+      <c r="D163" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F163" s="2">
+        <v>43394</v>
+      </c>
+    </row>
+    <row r="164" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B164" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C164" s="3">
+        <f t="shared" si="17"/>
+        <v>13320</v>
+      </c>
+      <c r="D164" s="3">
+        <v>4200</v>
+      </c>
+      <c r="F164" s="2">
+        <v>43401</v>
+      </c>
+    </row>
+    <row r="165" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B165" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C165" s="3">
+        <f t="shared" si="17"/>
+        <v>10980</v>
+      </c>
+      <c r="D165" s="3">
+        <v>2340</v>
+      </c>
+      <c r="F165" s="2">
+        <v>43401</v>
+      </c>
+    </row>
+    <row r="166" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B166" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C166" s="3">
+        <f>C165-D166</f>
+        <v>2380</v>
+      </c>
+      <c r="D166" s="3">
+        <v>8600</v>
+      </c>
+      <c r="F166" s="2">
+        <v>43402</v>
+      </c>
+    </row>
+    <row r="167" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B167" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C167" s="3">
+        <f>C166-D167</f>
+        <v>-3220</v>
+      </c>
+      <c r="D167" s="3">
+        <v>5600</v>
+      </c>
+      <c r="F167" s="2">
+        <v>43402</v>
+      </c>
+    </row>
+    <row r="168" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B168" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C168" s="3">
+        <f>C167-D168</f>
+        <v>-9220</v>
+      </c>
+      <c r="D168" s="3">
+        <v>6000</v>
+      </c>
+      <c r="F168" s="2">
+        <v>43401</v>
+      </c>
+    </row>
+    <row r="169" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B169" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C169" s="5">
+        <f>C168+E169</f>
+        <v>69251</v>
+      </c>
+      <c r="E169" s="13">
+        <v>78471</v>
+      </c>
+      <c r="F169" s="6">
+        <v>43405</v>
       </c>
     </row>
   </sheetData>
